--- a/Data/Antechinus_template_LMdefinitions.xlsx
+++ b/Data/Antechinus_template_LMdefinitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro\Desktop\Pietro\Projects\Viacavaetal_Antechinus\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pietro\Antechinus_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Quantity</t>
   </si>
@@ -325,18 +325,143 @@
     <t>LM12 to LM1, anterior nasal (1)</t>
   </si>
   <si>
+    <t>LM11 to LM17, nasal-premaxillary suture (3)</t>
+  </si>
+  <si>
+    <t>LM12 to LM18, nasal premaxillary suture (3)</t>
+  </si>
+  <si>
+    <t>LM18 to LM20, nasal-maxillary suture (3)</t>
+  </si>
+  <si>
+    <t>LM17 to LM19, nasal-maxillary suture (3)</t>
+  </si>
+  <si>
+    <t>LM20 to LM2, nasal-frontal suture (3)</t>
+  </si>
+  <si>
+    <t>LM23 to LM34, postorbital process, edge of lacrimal (5)</t>
+  </si>
+  <si>
+    <t>LM15 to LM25, ventro-distal maxillary edge (3)</t>
+  </si>
+  <si>
+    <t>LM24 to LM36, postorbital process, edge of lacrimal (5)</t>
+  </si>
+  <si>
+    <t>LM29 to LM 30, distal width of infraorbital foramen (1)</t>
+  </si>
+  <si>
+    <t>LM30 to LM 29, proximal width of infraorbital foramen (1)</t>
+  </si>
+  <si>
+    <t>LM33 to LM34, ventral width of antero-ventral lacrimal foramen (1)</t>
+  </si>
+  <si>
+    <t>LM34 to LM33, dorsal width of antero-ventral lacrimal foramen (1)</t>
+  </si>
+  <si>
+    <t>LM16 to LM26, ventro-distal maxillary edge (3)</t>
+  </si>
+  <si>
+    <t>LM35 to LM36, ventral width of antero-ventral lacrimal foramen (1)</t>
+  </si>
+  <si>
+    <t>LM36 to LM35, dorsal width of antero-ventral lacrimal foramen (1)</t>
+  </si>
+  <si>
+    <t>LM45 to LM47, distal edge and shortest distance (3)</t>
+  </si>
+  <si>
+    <t>LM46 to LM49, distal edge and shortest distance (3)</t>
+  </si>
+  <si>
+    <t>LM51 to LM59, edge of nuchal crest and shortest distance to paracondylar process (3)</t>
+  </si>
+  <si>
+    <t>LM52 to LM60, edge of nuchal crest and shortest distance to paracondylar process (3)</t>
+  </si>
+  <si>
+    <t>LM5 to LM55, edge of foramen magnum (3)</t>
+  </si>
+  <si>
+    <t>LM55 to LM6, edge fo foramen magnum (5)</t>
+  </si>
+  <si>
+    <t>LM5 to LM56, edge of foramen magnum (3)</t>
+  </si>
+  <si>
+    <t>LM56 to LM6, edge of foramen magnum (5)</t>
+  </si>
+  <si>
+    <t>LM55 to LM57, edge of occipital condyle (1)</t>
+  </si>
+  <si>
+    <t>LM56 to LM58, edge of occipital condyle (1)</t>
+  </si>
+  <si>
+    <t>LM57 to LM7, edge of occipital condyle (5)</t>
+  </si>
+  <si>
+    <t>LM58 to LM7, edge of occipital condyle (5)</t>
+  </si>
+  <si>
+    <t>LM63 to LM65, petrosal-basioccipital ridge (3)</t>
+  </si>
+  <si>
+    <t>LM64 to LM66, petrosal-basioccipital ridge (3)</t>
+  </si>
+  <si>
+    <t>LM65 to LM66, basioccipital-basisphenoid suture (3)</t>
+  </si>
+  <si>
+    <t>LM2 to LM3, midline (3)</t>
+  </si>
+  <si>
+    <t>LM19 to LM2, nasal-frontal suture (3)</t>
+  </si>
+  <si>
+    <t>LM31 to LM32, distal width of infraorbital foramen (1)</t>
+  </si>
+  <si>
+    <t>LM32 to LM31, proximal width of infraorbital foramen (1)</t>
+  </si>
+  <si>
+    <t>SUR L Premaxillary-maxillary (27)</t>
+  </si>
+  <si>
+    <t>SUR R Premaxillary-maxillary (27)</t>
+  </si>
+  <si>
+    <t>SUR L Nasal  (9)</t>
+  </si>
+  <si>
+    <t>SUR R Nasal (9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR R Frontal-Parietal (23) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR L Frontal-Parietal (23) </t>
+  </si>
+  <si>
+    <t>SUR posterior supraoccipital-exoccipital-petrosal edge (13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR occipital condyles (6) </t>
+  </si>
+  <si>
     <r>
       <t>LM1 to LM2, midline, nasal suture (</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -350,30 +475,47 @@
     </r>
   </si>
   <si>
-    <t>LM11 to LM17, nasal-premaxillary suture (3)</t>
-  </si>
-  <si>
-    <t>LM12 to LM18, nasal premaxillary suture (3)</t>
-  </si>
-  <si>
-    <t>LM18 to LM20, nasal-maxillary suture (3)</t>
-  </si>
-  <si>
-    <t>LM17 to LM19, nasal-maxillary suture (3)</t>
+    <t>LM10 to LM15, anterio-ventral edge of premaxillary (4)</t>
+  </si>
+  <si>
+    <t>LM10 to LM16, anterio-ventral edge of premaxillary (4)</t>
+  </si>
+  <si>
+    <t>LM19 to LM21, frontal-maxillary suture (2)</t>
+  </si>
+  <si>
+    <t>LM21 to LM23, frontal-lacrimal suture (2)</t>
+  </si>
+  <si>
+    <t>LM22 to LM24, frontal-lacrimal suture (2)</t>
+  </si>
+  <si>
+    <t>LM25 to LM27, ventro-distal maxillary edge (2)</t>
+  </si>
+  <si>
+    <t>LM27 to LM37, ventro-distal maxillardy edge (4)</t>
+  </si>
+  <si>
+    <t>LM37 to LM39, along most posterior ridge of maxillary (2)</t>
+  </si>
+  <si>
+    <t>LM26 to LM28, ventro-distal maxillary edge (2)</t>
+  </si>
+  <si>
+    <t>LM28 to LM38, ventro-distal maxillary edge (4)</t>
+  </si>
+  <si>
+    <t>LM38 to LM40, along most posterior ridge of maxillary (2)</t>
+  </si>
+  <si>
+    <t>LM41 to LM39, jugal-maxillary suture (2)</t>
+  </si>
+  <si>
+    <t>LM42 to LM40, jugal-maxillary suture (2)</t>
   </si>
   <si>
     <r>
-      <t>LM10 to LM15, anterio-ventral edge of premaxillary (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
+      <t>LM3 to LM4, midline</t>
     </r>
     <r>
       <rPr>
@@ -383,620 +525,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> (5) </t>
     </r>
   </si>
   <si>
-    <r>
-      <t>LM10 to LM16, anterio-ventral edge of premaxillary (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM19 to LM 2, nasal-frontal suture (3)</t>
-  </si>
-  <si>
-    <t>LM20 to LM2, nasal-frontal suture (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM19 to LM21, frontal-maxillary suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM20 to LM22, frontal-maxillary suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM22 to LM24, frontal-lacrimal suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM21 to LM23, frontal-lacrimal suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM23 to LM34, postorbital process, edge of lacrimal (5)</t>
-  </si>
-  <si>
-    <t>LM15 to LM25, ventro-distal maxillary edge (3)</t>
-  </si>
-  <si>
-    <t>LM24 to LM36, postorbital process, edge of lacrimal (5)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM25 to LM27, ventro-distal maxillary edge (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM27 to LM37, ventro-distal maxillardy edge (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM37 to LM39, along most posterior ridge of maxillary (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM29 to LM 30, distal width of infraorbital foramen (1)</t>
-  </si>
-  <si>
-    <t>LM30 to LM 29, proximal width of infraorbital foramen (1)</t>
-  </si>
-  <si>
-    <t>LM33 to LM34, ventral width of antero-ventral lacrimal foramen (1)</t>
-  </si>
-  <si>
-    <t>LM34 to LM33, dorsal width of antero-ventral lacrimal foramen (1)</t>
-  </si>
-  <si>
-    <t>LM16 to LM26, ventro-distal maxillary edge (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM26 to LM28, ventro-distal maxillary edge (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM28 to LM38, ventro-distal maxillardy edge (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM38 to LM40, along most posterior ridge of maxillary (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM31 to LM 32, distal width of infraorbital foramen (1)</t>
-  </si>
-  <si>
-    <t>LM32 to LM 31, proximal width of infraorbital foramen (1)</t>
-  </si>
-  <si>
-    <t>LM35 to LM36, ventral width of antero-ventral lacrimal foramen (1)</t>
-  </si>
-  <si>
-    <t>LM36 to LM35, dorsal width of antero-ventral lacrimal foramen (1)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM41 to LM39, jugal-maxillary suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM42 to LM40, jugal-maxillary suture (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LM3 to LM4, midline, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sagittal crest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (5)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM45 to LM47, distal edge and shortest distance (3)</t>
-  </si>
-  <si>
-    <t>LM46 to LM49, distal edge and shortest distance (3)</t>
-  </si>
-  <si>
-    <t>LM51 to LM59, edge of nuchal crest and shortest distance to paracondylar process (3)</t>
-  </si>
-  <si>
-    <t>LM52 to LM60, edge of nuchal crest and shortest distance to paracondylar process (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM4 to LM53, edge of nuchal crest (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM4 to LM54, edge of nuchal crest (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM53 to LM51, edge of nuchal crest (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM54 to LM52, edge of nuchal crest (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM5 to LM55, edge of foramen magnum (3)</t>
-  </si>
-  <si>
-    <t>LM55 to LM6, edge fo foramen magnum (5)</t>
-  </si>
-  <si>
-    <t>LM5 to LM56, edge of foramen magnum (3)</t>
-  </si>
-  <si>
-    <t>LM56 to LM6, edge of foramen magnum (5)</t>
-  </si>
-  <si>
-    <t>LM55 to LM57, edge of occipital condyle (1)</t>
-  </si>
-  <si>
-    <t>LM56 to LM58, edge of occipital condyle (1)</t>
-  </si>
-  <si>
-    <t>LM57 to LM7, edge of occipital condyle (5)</t>
-  </si>
-  <si>
-    <t>LM58 to LM7, edge of occipital condyle (5)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM61 to LM63, shortest distance (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM62 to LM64, shortest distance (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>LM63 to LM65, petrosal-basioccipital ridge (3)</t>
-  </si>
-  <si>
-    <t>LM64 to LM66, petrosal-basioccipital ridge (3)</t>
-  </si>
-  <si>
-    <t>LM65 to LM66, basioccipital-basisphenoid suture (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>LM8 to LM9, midline (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>LM4 to LM53, edge of nuchal crest (4)</t>
+  </si>
+  <si>
+    <t>LM4 to LM54, edge of nuchal crest (4)</t>
+  </si>
+  <si>
+    <t>LM53 to LM51, edge of nuchal crest (4)</t>
+  </si>
+  <si>
+    <t>LM54 to LM52, edge of nuchal crest (4)</t>
+  </si>
+  <si>
+    <t>LM61 to LM63, shortest distance (2)</t>
+  </si>
+  <si>
+    <t>LM62 to LM64, shortest distance (2)</t>
+  </si>
+  <si>
+    <t>LM8 to LM9, midline (8)</t>
+  </si>
+  <si>
+    <t>LM20 to LM22, frontal-maxillary suture (2)</t>
+  </si>
+  <si>
+    <t>SUR basioccipital (8)</t>
+  </si>
+  <si>
+    <t>9 patches (145 surface semilandmarks)</t>
+  </si>
+  <si>
+    <t>63 curves (185 curve semilandmarks)</t>
+  </si>
+  <si>
+    <t>82 fixed landmarks</t>
   </si>
 </sst>
 </file>
@@ -1012,16 +578,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1035,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1106,34 +671,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,874 +1022,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
